--- a/data/regression_name_list1514.xlsx
+++ b/data/regression_name_list1514.xlsx
@@ -476,7 +476,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
